--- a/project/excel/oae_data_protocol.xlsx
+++ b/project/excel/oae_data_protocol.xlsx
@@ -7,9 +7,17 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Project" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ProjectCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PropertyValue" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Any" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="OAEProject" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Dataset" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Experiment" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Intervention" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ModelSimulation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ModelGrid" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ModelComponent" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ModelPhysicsComponent" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ModelBGCComponent" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +423,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,7 +452,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>description</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -436,7 +462,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>codebase</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>references</t>
         </is>
       </c>
     </row>
@@ -445,13 +481,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,51 +498,41 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>primary_email</t>
+          <t>air_sea_co2_flux_parameterization</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>birth_date</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>age_in_years</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>vital_status</t>
+          <t>version</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>codebase</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
+          <t>references</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -519,11 +545,498 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>entries</t>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>project_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>mcdr_pathway</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>site_description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>permit_info</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"ocean_alkalinity_enhancement,macroalgal_cultivation,direct_ocean_capture,ocean_fertilization,artificial_upwelling_downwelling,coastal_blue_carbon,marine_ecosystem_recovery"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>identifier</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>temporal_coverage</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>spatial_coverage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>experiment_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>experiment_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>observation_type</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>datasets</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>previous_research</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"natural,manipulated,model_output"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"profile,surface_underway,time_series,laboratory_experiments,mesocosms,field_experiments,natural_analogues,model_outputs"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>treatment_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>alkalinity_feedstock_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>alkalinity_feedstock_description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dosing_depth_in_m</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>dosing_regimen</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>dosing_location</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>experiment_type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>experiment_id</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>observation_type</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>datasets</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>previous_research</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"electrochemical,mineral,dissolved,river,coastal,preequilibrated"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"lime,portlandite,calcium_carbonate,anorthite,dolomite,periclase,brucite,magnesite,forsterite,mg_rich_olivine,sodium_hydroxide,natrite,nahcolite"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"natural,manipulated,model_output"</formula1>
+    </dataValidation>
+    <dataValidation sqref="K2:K1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"profile,surface_underway,time_series,laboratory_experiments,mesocosms,field_experiments,natural_analogues,model_outputs"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>model_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>model_configurations</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>model_components</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>grid_details</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>experiment_type</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>experiment_id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>observation_type</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>datasets</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>previous_research</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"counterfactual,perturbation"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"natural,manipulated,model_output"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"profile,surface_underway,time_series,laboratory_experiments,mesocosms,field_experiments,natural_analogues,model_outputs"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>grid_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>arrangement</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>n_x</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>n_y</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>n_z</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>n_nodes</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>horizontal_resolution_in_m</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>vertical_resolution_in_m</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>codebase</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>references</t>
         </is>
       </c>
     </row>
